--- a/Final/Dataset.xlsx
+++ b/Final/Dataset.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/Term 5/ESA/Project/Viz-Wiz/R-Shiny/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/Term 5/ESA/Project/Viz-Wiz/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF80A4B5-FACF-FA47-A247-790C79A527B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F9C2C-7D1B-CC41-85E0-4E1791EE6A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37460" yWindow="860" windowWidth="31580" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$335</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -83,9 +96,6 @@
   </si>
   <si>
     <t>Multiplayer</t>
-  </si>
-  <si>
-    <t>Multiplater</t>
   </si>
   <si>
     <t>Beginner 1</t>
@@ -503,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K335"/>
+  <dimension ref="A1:Q335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -599,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -625,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -660,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -695,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -730,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -765,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -800,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -826,7 +836,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -861,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -896,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -931,7 +941,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -966,7 +976,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -1001,7 +1011,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -1036,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1071,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -1106,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -1141,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -1176,7 +1186,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -1211,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>18</v>
@@ -1246,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -1281,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1316,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -1351,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -1386,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -1421,7 +1431,7 @@
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -1456,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -1491,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1526,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -1561,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -1596,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -1631,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -1666,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -1701,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35">
         <v>15</v>
@@ -1736,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -1771,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -1806,7 +1816,7 @@
         <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -1841,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -1876,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40">
         <v>12</v>
@@ -1911,7 +1921,7 @@
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -1946,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42">
         <v>15</v>
@@ -1981,7 +1991,7 @@
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -2016,7 +2026,7 @@
         <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -2051,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <v>15</v>
@@ -2086,7 +2096,7 @@
         <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46">
         <v>12</v>
@@ -2121,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47">
         <v>15</v>
@@ -2156,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48">
         <v>20</v>
@@ -2191,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49">
         <v>16</v>
@@ -2226,7 +2236,7 @@
         <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50">
         <v>26</v>
@@ -2252,7 +2262,7 @@
         <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51">
         <v>25</v>
@@ -2278,7 +2288,7 @@
         <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F52">
         <v>12</v>
@@ -2313,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53">
         <v>15</v>
@@ -2348,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54">
         <v>7</v>
@@ -2383,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55">
         <v>15</v>
@@ -2418,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F56">
         <v>8</v>
@@ -2453,7 +2463,7 @@
         <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57">
         <v>7</v>
@@ -2488,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -2523,7 +2533,7 @@
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59">
         <v>41</v>
@@ -2558,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -2593,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -2628,7 +2638,7 @@
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -2663,7 +2673,7 @@
         <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F63">
         <v>17</v>
@@ -2698,7 +2708,7 @@
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64">
         <v>19</v>
@@ -2733,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65">
         <v>20</v>
@@ -2768,7 +2778,7 @@
         <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66">
         <v>26</v>
@@ -2803,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>21</v>
@@ -2838,7 +2848,7 @@
         <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -2873,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69">
         <v>32</v>
@@ -2908,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70">
         <v>15</v>
@@ -2943,7 +2953,7 @@
         <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71">
         <v>19</v>
@@ -2978,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72">
         <v>10</v>
@@ -3013,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73">
         <v>11</v>
@@ -3048,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F74">
         <v>14</v>
@@ -3083,7 +3093,7 @@
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75">
         <v>12</v>
@@ -3118,7 +3128,7 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76">
         <v>11</v>
@@ -3153,7 +3163,7 @@
         <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F77">
         <v>18</v>
@@ -3188,7 +3198,7 @@
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F78">
         <v>10</v>
@@ -3223,7 +3233,7 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79">
         <v>14</v>
@@ -3258,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F80">
         <v>7</v>
@@ -3293,7 +3303,7 @@
         <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F81">
         <v>5</v>
@@ -3328,7 +3338,7 @@
         <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -3363,7 +3373,7 @@
         <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F83">
         <v>4</v>
@@ -3398,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F84">
         <v>13</v>
@@ -3433,7 +3443,7 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F85">
         <v>22</v>
@@ -3468,7 +3478,7 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F86">
         <v>16</v>
@@ -3503,7 +3513,7 @@
         <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F87">
         <v>40</v>
@@ -3538,7 +3548,7 @@
         <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F88">
         <v>13</v>
@@ -3573,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F89">
         <v>14</v>
@@ -3608,7 +3618,7 @@
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F90">
         <v>35</v>
@@ -3643,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F91">
         <v>17</v>
@@ -3678,7 +3688,7 @@
         <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F92">
         <v>20</v>
@@ -3713,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F93">
         <v>41</v>
@@ -3748,7 +3758,7 @@
         <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F94">
         <v>23</v>
@@ -3783,7 +3793,7 @@
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F95">
         <v>11</v>
@@ -3818,7 +3828,7 @@
         <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F96">
         <v>21</v>
@@ -3853,7 +3863,7 @@
         <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F97">
         <v>31</v>
@@ -3879,7 +3889,7 @@
         <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98">
         <v>29</v>
@@ -3905,7 +3915,7 @@
         <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -3931,7 +3941,7 @@
         <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F100">
         <v>25</v>
@@ -3957,7 +3967,7 @@
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F101">
         <v>15</v>
@@ -3983,7 +3993,7 @@
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F102">
         <v>14</v>
@@ -4018,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F103">
         <v>8</v>
@@ -4053,7 +4063,7 @@
         <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F104">
         <v>4</v>
@@ -4088,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F105">
         <v>11</v>
@@ -4123,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F106">
         <v>47</v>
@@ -4158,7 +4168,7 @@
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F107">
         <v>12</v>
@@ -4193,7 +4203,7 @@
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F108">
         <v>11</v>
@@ -4228,7 +4238,7 @@
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F109">
         <v>8</v>
@@ -4263,7 +4273,7 @@
         <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F110">
         <v>14</v>
@@ -4298,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F111">
         <v>20</v>
@@ -4333,7 +4343,7 @@
         <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112">
         <v>27</v>
@@ -4368,7 +4378,7 @@
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F113">
         <v>25</v>
@@ -4403,7 +4413,7 @@
         <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114">
         <v>26</v>
@@ -4438,7 +4448,7 @@
         <v>20</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -4473,7 +4483,7 @@
         <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F116">
         <v>35</v>
@@ -4508,7 +4518,7 @@
         <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F117">
         <v>13</v>
@@ -4543,7 +4553,7 @@
         <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F118">
         <v>23</v>
@@ -4578,7 +4588,7 @@
         <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F119">
         <v>11</v>
@@ -4613,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F120">
         <v>9</v>
@@ -4648,7 +4658,7 @@
         <v>20</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F121">
         <v>20</v>
@@ -4683,7 +4693,7 @@
         <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F122">
         <v>16</v>
@@ -4718,7 +4728,7 @@
         <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F123">
         <v>19</v>
@@ -4753,7 +4763,7 @@
         <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F124">
         <v>27</v>
@@ -4788,7 +4798,7 @@
         <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F125">
         <v>9</v>
@@ -4823,7 +4833,7 @@
         <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F126">
         <v>24</v>
@@ -4858,7 +4868,7 @@
         <v>20</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127">
         <v>9</v>
@@ -4893,7 +4903,7 @@
         <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F128">
         <v>4</v>
@@ -4928,7 +4938,7 @@
         <v>20</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F129">
         <v>5</v>
@@ -4963,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -4998,7 +5008,7 @@
         <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F131">
         <v>19</v>
@@ -5033,7 +5043,7 @@
         <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F132">
         <v>31</v>
@@ -5068,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F133">
         <v>21</v>
@@ -5103,7 +5113,7 @@
         <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F134">
         <v>47</v>
@@ -5138,7 +5148,7 @@
         <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F135">
         <v>22</v>
@@ -5173,7 +5183,7 @@
         <v>20</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F136">
         <v>20</v>
@@ -5208,7 +5218,7 @@
         <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F137">
         <v>35</v>
@@ -5243,7 +5253,7 @@
         <v>20</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F138">
         <v>20</v>
@@ -5278,7 +5288,7 @@
         <v>20</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F139">
         <v>27</v>
@@ -5313,7 +5323,7 @@
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F140">
         <v>44</v>
@@ -5348,7 +5358,7 @@
         <v>20</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F141">
         <v>32</v>
@@ -5383,7 +5393,7 @@
         <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F142">
         <v>19</v>
@@ -5418,7 +5428,7 @@
         <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -5426,6 +5436,12 @@
       <c r="G143">
         <v>48</v>
       </c>
+      <c r="H143">
+        <v>33.599999999999994</v>
+      </c>
+      <c r="I143" s="3">
+        <v>5.6</v>
+      </c>
       <c r="J143" s="3">
         <v>32.549999999999997</v>
       </c>
@@ -5447,7 +5463,7 @@
         <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F144">
         <v>6</v>
@@ -5455,6 +5471,12 @@
       <c r="G144">
         <v>48</v>
       </c>
+      <c r="H144">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I144" s="3">
+        <v>5.7</v>
+      </c>
       <c r="J144" s="3">
         <v>31.53</v>
       </c>
@@ -5462,7 +5484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -5476,7 +5498,7 @@
         <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F145">
         <v>7</v>
@@ -5484,6 +5506,12 @@
       <c r="G145">
         <v>56</v>
       </c>
+      <c r="H145">
+        <v>59.5</v>
+      </c>
+      <c r="I145" s="3">
+        <v>8.5</v>
+      </c>
       <c r="J145" s="3">
         <v>35.74</v>
       </c>
@@ -5491,7 +5519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -5505,7 +5533,7 @@
         <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F146">
         <v>8</v>
@@ -5513,6 +5541,12 @@
       <c r="G146">
         <v>64</v>
       </c>
+      <c r="H146">
+        <v>60</v>
+      </c>
+      <c r="I146" s="3">
+        <v>7.5</v>
+      </c>
       <c r="J146" s="3">
         <v>35.659999999999997</v>
       </c>
@@ -5520,7 +5554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -5534,7 +5568,7 @@
         <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F147">
         <v>8</v>
@@ -5542,14 +5576,21 @@
       <c r="G147">
         <v>64</v>
       </c>
+      <c r="H147">
+        <v>54.4</v>
+      </c>
+      <c r="I147" s="3">
+        <v>6.8</v>
+      </c>
       <c r="J147" s="3">
         <v>37.770000000000003</v>
       </c>
       <c r="K147" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q147" s="3"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -5563,22 +5604,20 @@
         <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F148">
         <v>5</v>
       </c>
-      <c r="G148">
-        <v>40</v>
-      </c>
       <c r="J148" s="3">
         <v>30.05</v>
       </c>
       <c r="K148" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q148" s="3"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -5592,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F149">
         <v>6</v>
@@ -5612,8 +5651,9 @@
       <c r="K149" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q149" s="3"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -5627,7 +5667,7 @@
         <v>20</v>
       </c>
       <c r="E150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F150">
         <v>6</v>
@@ -5647,8 +5687,9 @@
       <c r="K150" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q150" s="3"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -5662,7 +5703,7 @@
         <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F151">
         <v>5</v>
@@ -5682,8 +5723,9 @@
       <c r="K151" s="3">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q151" s="3"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -5697,7 +5739,7 @@
         <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F152">
         <v>7</v>
@@ -5717,8 +5759,9 @@
       <c r="K152" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q152" s="3"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -5732,7 +5775,7 @@
         <v>20</v>
       </c>
       <c r="E153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F153">
         <v>9</v>
@@ -5752,8 +5795,9 @@
       <c r="K153" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q153" s="3"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -5767,7 +5811,7 @@
         <v>20</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F154">
         <v>7</v>
@@ -5787,8 +5831,9 @@
       <c r="K154" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q154" s="3"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -5802,7 +5847,7 @@
         <v>20</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F155">
         <v>3</v>
@@ -5822,8 +5867,9 @@
       <c r="K155" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q155" s="3"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -5837,7 +5883,7 @@
         <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F156">
         <v>7</v>
@@ -5857,8 +5903,9 @@
       <c r="K156" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q156" s="3"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -5872,7 +5919,7 @@
         <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F157">
         <v>10</v>
@@ -5892,8 +5939,9 @@
       <c r="K157" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q157" s="3"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -5907,7 +5955,7 @@
         <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F158">
         <v>15</v>
@@ -5927,8 +5975,9 @@
       <c r="K158" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q158" s="3"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -5942,7 +5991,7 @@
         <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F159">
         <v>13</v>
@@ -5963,7 +6012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -5977,7 +6026,7 @@
         <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F160">
         <v>9</v>
@@ -6012,7 +6061,7 @@
         <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F161">
         <v>9</v>
@@ -6047,7 +6096,7 @@
         <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F162">
         <v>14</v>
@@ -6082,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F163">
         <v>6</v>
@@ -6117,7 +6166,7 @@
         <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F164">
         <v>20</v>
@@ -6152,7 +6201,7 @@
         <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F165">
         <v>25</v>
@@ -6187,7 +6236,7 @@
         <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F166">
         <v>15</v>
@@ -6222,7 +6271,7 @@
         <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F167">
         <v>7</v>
@@ -6257,7 +6306,7 @@
         <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F168">
         <v>9</v>
@@ -6292,7 +6341,7 @@
         <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F169">
         <v>5</v>
@@ -6327,7 +6376,7 @@
         <v>19</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F170">
         <v>12</v>
@@ -6362,7 +6411,7 @@
         <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F171">
         <v>10</v>
@@ -6397,7 +6446,7 @@
         <v>19</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F172">
         <v>15</v>
@@ -6432,7 +6481,7 @@
         <v>19</v>
       </c>
       <c r="E173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F173">
         <v>16</v>
@@ -6467,7 +6516,7 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F174">
         <v>18</v>
@@ -6502,7 +6551,7 @@
         <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F175">
         <v>13</v>
@@ -6537,7 +6586,7 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F176">
         <v>12</v>
@@ -6572,7 +6621,7 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F177">
         <v>9</v>
@@ -6607,7 +6656,7 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F178">
         <v>12</v>
@@ -6642,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F179">
         <v>20</v>
@@ -6677,7 +6726,7 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F180">
         <v>10</v>
@@ -6712,7 +6761,7 @@
         <v>19</v>
       </c>
       <c r="E181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F181">
         <v>8</v>
@@ -6747,7 +6796,7 @@
         <v>19</v>
       </c>
       <c r="E182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F182">
         <v>8</v>
@@ -6782,7 +6831,7 @@
         <v>19</v>
       </c>
       <c r="E183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F183">
         <v>8</v>
@@ -6817,7 +6866,7 @@
         <v>19</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F184">
         <v>12</v>
@@ -6852,7 +6901,7 @@
         <v>20</v>
       </c>
       <c r="E185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F185">
         <v>6</v>
@@ -6887,7 +6936,7 @@
         <v>20</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F186">
         <v>9</v>
@@ -6922,7 +6971,7 @@
         <v>20</v>
       </c>
       <c r="E187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F187">
         <v>5</v>
@@ -6957,7 +7006,7 @@
         <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F188">
         <v>15</v>
@@ -6992,7 +7041,7 @@
         <v>20</v>
       </c>
       <c r="E189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F189">
         <v>13</v>
@@ -7027,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F190">
         <v>12</v>
@@ -7062,7 +7111,7 @@
         <v>20</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F191">
         <v>10</v>
@@ -7097,7 +7146,7 @@
         <v>20</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -7132,7 +7181,7 @@
         <v>20</v>
       </c>
       <c r="E193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F193">
         <v>15</v>
@@ -7164,10 +7213,10 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" t="s">
         <v>21</v>
-      </c>
-      <c r="E194" t="s">
-        <v>22</v>
       </c>
       <c r="F194">
         <v>23</v>
@@ -7202,7 +7251,7 @@
         <v>20</v>
       </c>
       <c r="E195" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F195">
         <v>20</v>
@@ -7237,14 +7286,11 @@
         <v>19</v>
       </c>
       <c r="E196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F196">
         <v>5</v>
       </c>
-      <c r="I196" s="3">
-        <v>0</v>
-      </c>
       <c r="J196" s="3">
         <v>33</v>
       </c>
@@ -7266,14 +7312,11 @@
         <v>19</v>
       </c>
       <c r="E197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F197">
         <v>6</v>
       </c>
-      <c r="I197" s="3">
-        <v>0</v>
-      </c>
       <c r="J197" s="3">
         <v>35</v>
       </c>
@@ -7295,14 +7338,11 @@
         <v>19</v>
       </c>
       <c r="E198" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F198">
         <v>8</v>
       </c>
-      <c r="I198" s="3">
-        <v>0</v>
-      </c>
       <c r="J198" s="3">
         <v>36.450000000000003</v>
       </c>
@@ -7324,7 +7364,7 @@
         <v>20</v>
       </c>
       <c r="E199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F199">
         <v>18</v>
@@ -7359,7 +7399,7 @@
         <v>19</v>
       </c>
       <c r="E200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F200">
         <v>13</v>
@@ -7385,7 +7425,7 @@
         <v>20</v>
       </c>
       <c r="E201" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F201">
         <v>14</v>
@@ -7420,7 +7460,7 @@
         <v>20</v>
       </c>
       <c r="E202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F202">
         <v>19</v>
@@ -7455,7 +7495,7 @@
         <v>20</v>
       </c>
       <c r="E203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F203">
         <v>30</v>
@@ -7490,7 +7530,7 @@
         <v>19</v>
       </c>
       <c r="E204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F204">
         <v>6</v>
@@ -7525,7 +7565,7 @@
         <v>20</v>
       </c>
       <c r="E205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F205">
         <v>7</v>
@@ -7560,7 +7600,7 @@
         <v>19</v>
       </c>
       <c r="E206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F206">
         <v>12</v>
@@ -7595,7 +7635,7 @@
         <v>20</v>
       </c>
       <c r="E207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F207">
         <v>10</v>
@@ -7630,7 +7670,7 @@
         <v>20</v>
       </c>
       <c r="E208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F208">
         <v>15</v>
@@ -7665,7 +7705,7 @@
         <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F209">
         <v>17</v>
@@ -7700,7 +7740,7 @@
         <v>20</v>
       </c>
       <c r="E210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F210">
         <v>19</v>
@@ -7735,7 +7775,7 @@
         <v>20</v>
       </c>
       <c r="E211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F211">
         <v>15</v>
@@ -7770,7 +7810,7 @@
         <v>20</v>
       </c>
       <c r="E212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F212">
         <v>20</v>
@@ -7805,7 +7845,7 @@
         <v>19</v>
       </c>
       <c r="E213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F213">
         <v>20</v>
@@ -7840,7 +7880,7 @@
         <v>19</v>
       </c>
       <c r="E214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -7875,7 +7915,7 @@
         <v>19</v>
       </c>
       <c r="E215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F215">
         <v>5</v>
@@ -7910,7 +7950,7 @@
         <v>20</v>
       </c>
       <c r="E216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F216">
         <v>6</v>
@@ -7945,7 +7985,7 @@
         <v>20</v>
       </c>
       <c r="E217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F217">
         <v>5</v>
@@ -7980,7 +8020,7 @@
         <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F218">
         <v>8</v>
@@ -8015,7 +8055,7 @@
         <v>19</v>
       </c>
       <c r="E219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F219">
         <v>9</v>
@@ -8050,7 +8090,7 @@
         <v>19</v>
       </c>
       <c r="E220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F220">
         <v>10</v>
@@ -8085,7 +8125,7 @@
         <v>20</v>
       </c>
       <c r="E221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F221">
         <v>12</v>
@@ -8120,7 +8160,7 @@
         <v>20</v>
       </c>
       <c r="E222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F222">
         <v>15</v>
@@ -8155,7 +8195,7 @@
         <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F223">
         <v>16</v>
@@ -8190,7 +8230,7 @@
         <v>20</v>
       </c>
       <c r="E224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F224">
         <v>13</v>
@@ -8225,7 +8265,7 @@
         <v>19</v>
       </c>
       <c r="E225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F225">
         <v>2</v>
@@ -8260,7 +8300,7 @@
         <v>20</v>
       </c>
       <c r="E226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F226">
         <v>5</v>
@@ -8295,7 +8335,7 @@
         <v>20</v>
       </c>
       <c r="E227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F227">
         <v>7</v>
@@ -8330,7 +8370,7 @@
         <v>19</v>
       </c>
       <c r="E228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F228">
         <v>9</v>
@@ -8365,7 +8405,7 @@
         <v>19</v>
       </c>
       <c r="E229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F229">
         <v>13</v>
@@ -8400,7 +8440,7 @@
         <v>20</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F230">
         <v>15</v>
@@ -8435,7 +8475,7 @@
         <v>19</v>
       </c>
       <c r="E231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F231">
         <v>6</v>
@@ -8470,7 +8510,7 @@
         <v>19</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F232">
         <v>15</v>
@@ -8505,7 +8545,7 @@
         <v>20</v>
       </c>
       <c r="E233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F233">
         <v>17</v>
@@ -8540,7 +8580,7 @@
         <v>20</v>
       </c>
       <c r="E234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F234">
         <v>12</v>
@@ -8575,7 +8615,7 @@
         <v>20</v>
       </c>
       <c r="E235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F235">
         <v>5</v>
@@ -8610,7 +8650,7 @@
         <v>20</v>
       </c>
       <c r="E236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F236">
         <v>3</v>
@@ -8645,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="E237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F237">
         <v>21</v>
@@ -8680,7 +8720,7 @@
         <v>20</v>
       </c>
       <c r="E238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F238">
         <v>25</v>
@@ -8715,7 +8755,7 @@
         <v>20</v>
       </c>
       <c r="E239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F239">
         <v>13</v>
@@ -8750,7 +8790,7 @@
         <v>19</v>
       </c>
       <c r="E240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F240">
         <v>6</v>
@@ -8758,6 +8798,12 @@
       <c r="G240">
         <v>48</v>
       </c>
+      <c r="H240">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I240" s="3">
+        <v>6.8</v>
+      </c>
       <c r="J240" s="3">
         <v>29.11</v>
       </c>
@@ -8765,7 +8811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -8779,7 +8825,7 @@
         <v>19</v>
       </c>
       <c r="E241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F241">
         <v>6</v>
@@ -8787,6 +8833,12 @@
       <c r="G241">
         <v>48</v>
       </c>
+      <c r="H241">
+        <v>46.8</v>
+      </c>
+      <c r="I241" s="3">
+        <v>7.8</v>
+      </c>
       <c r="J241" s="3">
         <v>28.99</v>
       </c>
@@ -8794,7 +8846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -8808,7 +8860,7 @@
         <v>19</v>
       </c>
       <c r="E242" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F242">
         <v>7</v>
@@ -8816,14 +8868,21 @@
       <c r="G242">
         <v>56</v>
       </c>
+      <c r="H242">
+        <v>63.7</v>
+      </c>
+      <c r="I242" s="3">
+        <v>9.1</v>
+      </c>
       <c r="J242" s="3">
         <v>35</v>
       </c>
       <c r="K242" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P242" s="3"/>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -8837,7 +8896,7 @@
         <v>19</v>
       </c>
       <c r="E243" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F243">
         <v>7</v>
@@ -8845,14 +8904,21 @@
       <c r="G243">
         <v>56</v>
       </c>
+      <c r="H243">
+        <v>47.6</v>
+      </c>
+      <c r="I243" s="3">
+        <v>6.8</v>
+      </c>
       <c r="J243" s="3">
         <v>33</v>
       </c>
       <c r="K243" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P243" s="3"/>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -8866,7 +8932,7 @@
         <v>19</v>
       </c>
       <c r="E244" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F244">
         <v>5</v>
@@ -8874,14 +8940,21 @@
       <c r="G244">
         <v>40</v>
       </c>
+      <c r="H244">
+        <v>29</v>
+      </c>
+      <c r="I244" s="3">
+        <v>5.8</v>
+      </c>
       <c r="J244" s="3">
         <v>27.55</v>
       </c>
       <c r="K244" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P244" s="3"/>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -8895,7 +8968,7 @@
         <v>19</v>
       </c>
       <c r="E245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F245">
         <v>8</v>
@@ -8903,14 +8976,21 @@
       <c r="G245">
         <v>64</v>
       </c>
+      <c r="H245">
+        <v>60.8</v>
+      </c>
+      <c r="I245" s="3">
+        <v>7.6</v>
+      </c>
       <c r="J245" s="3">
         <v>37.58</v>
       </c>
       <c r="K245" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P245" s="3"/>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -8924,7 +9004,7 @@
         <v>20</v>
       </c>
       <c r="E246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F246">
         <v>6</v>
@@ -8944,8 +9024,9 @@
       <c r="K246" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P246" s="3"/>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -8959,7 +9040,7 @@
         <v>20</v>
       </c>
       <c r="E247" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F247">
         <v>6</v>
@@ -8979,8 +9060,9 @@
       <c r="K247" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P247" s="3"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -8994,7 +9076,7 @@
         <v>20</v>
       </c>
       <c r="E248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F248">
         <v>5</v>
@@ -9014,8 +9096,9 @@
       <c r="K248" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P248" s="3"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -9029,7 +9112,7 @@
         <v>20</v>
       </c>
       <c r="E249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F249">
         <v>7</v>
@@ -9049,8 +9132,9 @@
       <c r="K249" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P249" s="3"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -9064,7 +9148,7 @@
         <v>20</v>
       </c>
       <c r="E250" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F250">
         <v>8</v>
@@ -9084,8 +9168,9 @@
       <c r="K250" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P250" s="3"/>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -9099,7 +9184,7 @@
         <v>20</v>
       </c>
       <c r="E251" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F251">
         <v>7</v>
@@ -9119,8 +9204,9 @@
       <c r="K251" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P251" s="3"/>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -9134,7 +9220,7 @@
         <v>20</v>
       </c>
       <c r="E252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F252">
         <v>4</v>
@@ -9154,8 +9240,9 @@
       <c r="K252" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P252" s="3"/>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -9169,7 +9256,7 @@
         <v>19</v>
       </c>
       <c r="E253" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F253">
         <v>5</v>
@@ -9189,8 +9276,9 @@
       <c r="K253" s="3">
         <v>75.16</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P253" s="3"/>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -9204,7 +9292,7 @@
         <v>19</v>
       </c>
       <c r="E254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F254">
         <v>16</v>
@@ -9225,7 +9313,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -9239,7 +9327,7 @@
         <v>19</v>
       </c>
       <c r="E255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F255">
         <v>12</v>
@@ -9260,7 +9348,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -9274,7 +9362,7 @@
         <v>19</v>
       </c>
       <c r="E256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F256">
         <v>15</v>
@@ -9309,7 +9397,7 @@
         <v>19</v>
       </c>
       <c r="E257" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F257">
         <v>14</v>
@@ -9344,7 +9432,7 @@
         <v>19</v>
       </c>
       <c r="E258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F258">
         <v>12</v>
@@ -9379,7 +9467,7 @@
         <v>20</v>
       </c>
       <c r="E259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F259">
         <v>8</v>
@@ -9414,7 +9502,7 @@
         <v>20</v>
       </c>
       <c r="E260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F260">
         <v>15</v>
@@ -9449,7 +9537,7 @@
         <v>20</v>
       </c>
       <c r="E261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F261">
         <v>17</v>
@@ -9484,7 +9572,7 @@
         <v>20</v>
       </c>
       <c r="E262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F262">
         <v>12</v>
@@ -9519,7 +9607,7 @@
         <v>20</v>
       </c>
       <c r="E263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F263">
         <v>13</v>
@@ -9554,7 +9642,7 @@
         <v>20</v>
       </c>
       <c r="E264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F264">
         <v>15</v>
@@ -9589,7 +9677,7 @@
         <v>19</v>
       </c>
       <c r="E265" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F265">
         <v>10</v>
@@ -9624,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="E266" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F266">
         <v>15</v>
@@ -9659,7 +9747,7 @@
         <v>19</v>
       </c>
       <c r="E267" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F267">
         <v>13</v>
@@ -9694,7 +9782,7 @@
         <v>19</v>
       </c>
       <c r="E268" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F268">
         <v>9</v>
@@ -9729,7 +9817,7 @@
         <v>19</v>
       </c>
       <c r="E269" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F269">
         <v>9</v>
@@ -9764,7 +9852,7 @@
         <v>19</v>
       </c>
       <c r="E270" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F270">
         <v>14</v>
@@ -9799,7 +9887,7 @@
         <v>20</v>
       </c>
       <c r="E271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F271">
         <v>6</v>
@@ -9834,7 +9922,7 @@
         <v>20</v>
       </c>
       <c r="E272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F272">
         <v>20</v>
@@ -9869,7 +9957,7 @@
         <v>20</v>
       </c>
       <c r="E273" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F273">
         <v>25</v>
@@ -9904,7 +9992,7 @@
         <v>20</v>
       </c>
       <c r="E274" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F274">
         <v>15</v>
@@ -9939,7 +10027,7 @@
         <v>20</v>
       </c>
       <c r="E275" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F275">
         <v>7</v>
@@ -9974,7 +10062,7 @@
         <v>20</v>
       </c>
       <c r="E276" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F276">
         <v>9</v>
@@ -10009,7 +10097,7 @@
         <v>19</v>
       </c>
       <c r="E277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F277">
         <v>5</v>
@@ -10044,7 +10132,7 @@
         <v>19</v>
       </c>
       <c r="E278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F278">
         <v>12</v>
@@ -10079,7 +10167,7 @@
         <v>19</v>
       </c>
       <c r="E279" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F279">
         <v>10</v>
@@ -10114,7 +10202,7 @@
         <v>19</v>
       </c>
       <c r="E280" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F280">
         <v>9</v>
@@ -10149,7 +10237,7 @@
         <v>19</v>
       </c>
       <c r="E281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F281">
         <v>12</v>
@@ -10184,7 +10272,7 @@
         <v>19</v>
       </c>
       <c r="E282" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F282">
         <v>13</v>
@@ -10219,7 +10307,7 @@
         <v>20</v>
       </c>
       <c r="E283" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F283">
         <v>10</v>
@@ -10254,7 +10342,7 @@
         <v>20</v>
       </c>
       <c r="E284" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F284">
         <v>8</v>
@@ -10289,7 +10377,7 @@
         <v>20</v>
       </c>
       <c r="E285" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F285">
         <v>8</v>
@@ -10324,7 +10412,7 @@
         <v>20</v>
       </c>
       <c r="E286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F286">
         <v>8</v>
@@ -10359,7 +10447,7 @@
         <v>20</v>
       </c>
       <c r="E287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F287">
         <v>5</v>
@@ -10394,7 +10482,7 @@
         <v>20</v>
       </c>
       <c r="E288" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F288">
         <v>12</v>
@@ -10429,7 +10517,7 @@
         <v>19</v>
       </c>
       <c r="E289" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F289">
         <v>4</v>
@@ -10437,6 +10525,12 @@
       <c r="G289">
         <v>32</v>
       </c>
+      <c r="H289">
+        <v>31.6</v>
+      </c>
+      <c r="I289" s="3">
+        <v>7.9</v>
+      </c>
       <c r="J289" s="3">
         <v>25.55</v>
       </c>
@@ -10458,7 +10552,7 @@
         <v>19</v>
       </c>
       <c r="E290" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F290">
         <v>6</v>
@@ -10466,6 +10560,12 @@
       <c r="G290">
         <v>48</v>
       </c>
+      <c r="H290">
+        <v>49.2</v>
+      </c>
+      <c r="I290" s="3">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="J290" s="3">
         <v>30.24</v>
       </c>
@@ -10487,7 +10587,7 @@
         <v>19</v>
       </c>
       <c r="E291" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F291">
         <v>6</v>
@@ -10495,6 +10595,12 @@
       <c r="G291">
         <v>48</v>
       </c>
+      <c r="H291">
+        <v>43.2</v>
+      </c>
+      <c r="I291" s="3">
+        <v>7.2</v>
+      </c>
       <c r="J291" s="3">
         <v>32.11</v>
       </c>
@@ -10516,7 +10622,7 @@
         <v>19</v>
       </c>
       <c r="E292" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F292">
         <v>5</v>
@@ -10524,6 +10630,12 @@
       <c r="G292">
         <v>40</v>
       </c>
+      <c r="H292">
+        <v>45.5</v>
+      </c>
+      <c r="I292" s="3">
+        <v>9.1</v>
+      </c>
       <c r="J292" s="3">
         <v>29.16</v>
       </c>
@@ -10545,7 +10657,7 @@
         <v>19</v>
       </c>
       <c r="E293" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F293">
         <v>6</v>
@@ -10553,6 +10665,12 @@
       <c r="G293">
         <v>48</v>
       </c>
+      <c r="H293">
+        <v>44.4</v>
+      </c>
+      <c r="I293" s="3">
+        <v>7.4</v>
+      </c>
       <c r="J293" s="3">
         <v>30.87</v>
       </c>
@@ -10574,7 +10692,7 @@
         <v>19</v>
       </c>
       <c r="E294" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F294">
         <v>7</v>
@@ -10582,6 +10700,12 @@
       <c r="G294">
         <v>56</v>
       </c>
+      <c r="H294">
+        <v>56.7</v>
+      </c>
+      <c r="I294" s="3">
+        <v>8.1</v>
+      </c>
       <c r="J294" s="3">
         <v>35.58</v>
       </c>
@@ -10603,7 +10727,7 @@
         <v>20</v>
       </c>
       <c r="E295" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F295">
         <v>5</v>
@@ -10638,7 +10762,7 @@
         <v>20</v>
       </c>
       <c r="E296" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F296">
         <v>8</v>
@@ -10673,7 +10797,7 @@
         <v>20</v>
       </c>
       <c r="E297" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F297">
         <v>5</v>
@@ -10708,7 +10832,7 @@
         <v>20</v>
       </c>
       <c r="E298" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F298">
         <v>6</v>
@@ -10743,7 +10867,7 @@
         <v>20</v>
       </c>
       <c r="E299" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F299">
         <v>7</v>
@@ -10778,7 +10902,7 @@
         <v>20</v>
       </c>
       <c r="E300" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F300">
         <v>9</v>
@@ -10813,7 +10937,7 @@
         <v>19</v>
       </c>
       <c r="E301" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F301">
         <v>5</v>
@@ -10848,7 +10972,7 @@
         <v>19</v>
       </c>
       <c r="E302" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F302">
         <v>10</v>
@@ -10883,7 +11007,7 @@
         <v>19</v>
       </c>
       <c r="E303" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F303">
         <v>12</v>
@@ -10918,7 +11042,7 @@
         <v>19</v>
       </c>
       <c r="E304" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F304">
         <v>13</v>
@@ -10953,7 +11077,7 @@
         <v>19</v>
       </c>
       <c r="E305" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F305">
         <v>15</v>
@@ -10988,7 +11112,7 @@
         <v>19</v>
       </c>
       <c r="E306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F306">
         <v>15</v>
@@ -11023,7 +11147,7 @@
         <v>20</v>
       </c>
       <c r="E307" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F307">
         <v>17</v>
@@ -11058,7 +11182,7 @@
         <v>20</v>
       </c>
       <c r="E308" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F308">
         <v>13</v>
@@ -11093,7 +11217,7 @@
         <v>20</v>
       </c>
       <c r="E309" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F309">
         <v>12</v>
@@ -11128,7 +11252,7 @@
         <v>20</v>
       </c>
       <c r="E310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F310">
         <v>20</v>
@@ -11163,7 +11287,7 @@
         <v>20</v>
       </c>
       <c r="E311" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F311">
         <v>15</v>
@@ -11198,7 +11322,7 @@
         <v>20</v>
       </c>
       <c r="E312" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F312">
         <v>16</v>
@@ -11233,7 +11357,7 @@
         <v>19</v>
       </c>
       <c r="E313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F313">
         <v>13</v>
@@ -11268,7 +11392,7 @@
         <v>19</v>
       </c>
       <c r="E314" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F314">
         <v>18</v>
@@ -11303,7 +11427,7 @@
         <v>19</v>
       </c>
       <c r="E315" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F315">
         <v>21</v>
@@ -11338,7 +11462,7 @@
         <v>19</v>
       </c>
       <c r="E316" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F316">
         <v>22</v>
@@ -11373,7 +11497,7 @@
         <v>19</v>
       </c>
       <c r="E317" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F317">
         <v>16</v>
@@ -11408,7 +11532,7 @@
         <v>19</v>
       </c>
       <c r="E318" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F318">
         <v>14</v>
@@ -11443,7 +11567,7 @@
         <v>20</v>
       </c>
       <c r="E319" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F319">
         <v>22</v>
@@ -11478,7 +11602,7 @@
         <v>20</v>
       </c>
       <c r="E320" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F320">
         <v>15</v>
@@ -11513,7 +11637,7 @@
         <v>20</v>
       </c>
       <c r="E321" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F321">
         <v>16</v>
@@ -11548,7 +11672,7 @@
         <v>20</v>
       </c>
       <c r="E322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F322">
         <v>22</v>
@@ -11583,7 +11707,7 @@
         <v>20</v>
       </c>
       <c r="E323" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F323">
         <v>20</v>
@@ -11618,7 +11742,7 @@
         <v>20</v>
       </c>
       <c r="E324" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F324">
         <v>17</v>
@@ -11653,7 +11777,7 @@
         <v>19</v>
       </c>
       <c r="E325" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F325">
         <v>5</v>
@@ -11688,7 +11812,7 @@
         <v>19</v>
       </c>
       <c r="E326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F326">
         <v>9</v>
@@ -11723,7 +11847,7 @@
         <v>19</v>
       </c>
       <c r="E327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F327">
         <v>5</v>
@@ -11758,7 +11882,7 @@
         <v>19</v>
       </c>
       <c r="E328" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F328">
         <v>6</v>
@@ -11793,7 +11917,7 @@
         <v>19</v>
       </c>
       <c r="E329" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F329">
         <v>3</v>
@@ -11828,7 +11952,7 @@
         <v>19</v>
       </c>
       <c r="E330" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F330">
         <v>7</v>
@@ -11863,7 +11987,7 @@
         <v>20</v>
       </c>
       <c r="E331" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F331">
         <v>10</v>
@@ -11898,7 +12022,7 @@
         <v>20</v>
       </c>
       <c r="E332" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F332">
         <v>15</v>
@@ -11933,7 +12057,7 @@
         <v>20</v>
       </c>
       <c r="E333" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F333">
         <v>12</v>
@@ -11968,7 +12092,7 @@
         <v>20</v>
       </c>
       <c r="E334" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F334">
         <v>6</v>
@@ -12003,7 +12127,7 @@
         <v>20</v>
       </c>
       <c r="E335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F335">
         <v>4</v>
